--- a/results_loading_times/instance_4_times.xlsx
+++ b/results_loading_times/instance_4_times.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -466,91 +466,91 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
